--- a/1- PM/Change Analysis.xlsx
+++ b/1- PM/Change Analysis.xlsx
@@ -46,11 +46,6 @@
     <t>change in the team Lead" from Aml Mansour to Nader Abdallah"</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1- need to hand over all the cuurent tasks
-2-Need to spend more time to make the new lead get familiar with the project  </t>
-  </si>
-  <si>
     <t>Customer required an update in the reservition feature for the car</t>
   </si>
   <si>
@@ -58,15 +53,6 @@
   </si>
   <si>
     <t>ACTIONS</t>
-  </si>
-  <si>
-    <t>1-Conducted meetings with the new lead to explain to him the overall system , required features , workflow 
-2- re-assigned PMP , risk management log and test plan document and review tracker update and RACI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-The addition of a new feature may impact the project timeline and resources, potentially leading to delays in other project deliverables.
-2- Introducing changes to the reservation feature might result in compatibility issues with existing systems or components, requiring additional development and testing efforts.
-</t>
   </si>
   <si>
     <t xml:space="preserve">1-The inclusion of the new reservation feature may extend the project timeline, affecting the overall project schedule and potentially delaying other planned activities.
@@ -74,7 +60,45 @@
 3-the new change will require updates in many document like(PMP , RTM , UI Design , SRS , Code , Testing), </t>
   </si>
   <si>
-    <t xml:space="preserve">assigned the new change to our back end development team (Beshoy &amp; Menna) and assigned the new test activity to salma </t>
+    <t xml:space="preserve">
+1- need to hand over all the cuurent tasks
+2-Need to spend more time to make the new lead get familiar with the project (approx. 2 days) 
+3- spending time in reassign any uncompleted tasks issued to the old member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Handing over current tasks:
+   - Ensure clear documentation and instructions are provided for each task.
+   - Schedule a handover meeting to discuss the status, priorities, and any pending issues.
+   - Offer support and assistance to the new project manager during the transition period.
+2. Familiarizing the new lead with the project:
+   - Allocate dedicated time (approximately 2 days) for the new project manager to study project documentation, codebase, and relevant materials.
+   - Conduct knowledge transfer sessions where the outgoing project manager provides insights and guidance to the new lead.
+   - Encourage open communication and collaboration between team members and the new project manager to address any questions or concerns.
+3. Reassigning uncompleted tasks:
+   - Review the current task assignments and assess the progress made by the previous project manager.
+   - Reevaluate priorities and deadlines for uncompleted tasks in consultation with the new project manager.
+   - Identify any critical tasks that require immediate attention and reallocate resources accordingly.
+4. Establishing effective communication channels:
+   - Encourage regular meetings and status updates to keep the new project manager informed about ongoing tasks, progress, and challenges.
+   - Foster a supportive team environment where team members feel comfortable seeking clarification or assistance from the new project manager.
+   - Establish a feedback mechanism to address any issues or concerns promptly and ensure smooth collaboration.
+5. Continuous monitoring and support:
+   - Provide ongoing guidance and support to the new project manager during the initial phase of taking over the project.
+   - Conduct periodic project reviews to assess the progress and address any gaps or challenges.
+   - Offer mentorship or coaching if necessary to help the new project manager adapt and succeed in their new role.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-The addition of a new feature may impact the project timeline and resources, potentially leading to delays in other project deliverables.(app. 1 work day)
+2- Introducing changes to the reservation feature might result in compatibility issues with existing systems or components, requiring additional development and testing efforts.
+3-the new change will require updates in many document like(PMP , RTM , UI Design , SRS , Code , Testing), 
+</t>
+  </si>
+  <si>
+    <t>1-Conduct a thorough impact assessment to evaluate the scope and complexity of the new feature and its potential impact on the project timeline and resources.
+  2-Collaborate with the project team, stakeholders, and management to prioritize and allocate resources effectively, ensuring that sufficient time and personnel are available to implement the new feature without compromising other project deliverables.
+ 3-Conduct a comprehensive analysis of the current system architecture and integration points to identify potential compatibility challenges. 
+4- Assign responsible individuals or teams to review and update the affected documents promptly.</t>
   </si>
 </sst>
 </file>
@@ -546,7 +570,7 @@
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -572,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -603,13 +627,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -637,13 +661,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>15</v>

--- a/1- PM/Change Analysis.xlsx
+++ b/1- PM/Change Analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -27,16 +27,9 @@
     <t>RISKS</t>
   </si>
   <si>
-    <t>IMPACT</t>
-  </si>
-  <si>
     <t>Change_Request1</t>
   </si>
   <si>
-    <t>1-spending extra time in training the new member
-2- spending time in reassign any uncompleted tasks issued to the old member</t>
-  </si>
-  <si>
     <t>Change_Request2</t>
   </si>
   <si>
@@ -53,11 +46,6 @@
   </si>
   <si>
     <t>ACTIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-The inclusion of the new reservation feature may extend the project timeline, affecting the overall project schedule and potentially delaying other planned activities.
-2-Additional development, testing, and deployment efforts will be required to implement and validate the new feature, potentially impacting resource allocation and availability for other project tasks.
-3-the new change will require updates in many document like(PMP , RTM , UI Design , SRS , Code , Testing), </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -168,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -217,35 +205,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -266,20 +230,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -567,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,361 +530,314 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="30.109375" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.5546875" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="60.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:24" ht="327.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-    </row>
-    <row r="2" spans="1:25" ht="218.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+    </row>
+    <row r="3" spans="1:24" ht="287.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+    </row>
+    <row r="4" spans="1:24" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-    </row>
-    <row r="3" spans="1:25" ht="229.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="3"/>
+      <c r="D40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1- PM/Change Analysis.xlsx
+++ b/1- PM/Change Analysis.xlsx
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
